--- a/project3/data.xlsx
+++ b/project3/data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18400" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="binary" sheetId="1" r:id="rId1"/>
+    <sheet name="fib" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,6 +22,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -64,8 +94,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -83,6 +116,2787 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>各个步骤消耗的时间</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>binary!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>build</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>binary!$C$17:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>binary!$D$17:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.9366226196289002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9420547485351495E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4209747314453101E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9907951354980401E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5200843811035102E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D12-43AA-88C1-9920BF186C8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>binary!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>insert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>binary!$C$17:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>binary!$E$17:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.3153762817382799E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2663345336914002E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.38554382324218E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7193298339843703E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3378601074218703E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D12-43AA-88C1-9920BF186C8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>binary!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>decrease</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>binary!$C$17:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>binary!$F$17:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.1219253540039002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1696090698242099E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9550323486328101E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.05039978027343E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0265579223632799E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9D12-43AA-88C1-9920BF186C8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>binary!$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>binary!$C$17:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>binary!$G$17:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5285949707031203E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3617019653320299E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.814697265625E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.57627868652343E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1961669921875E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9D12-43AA-88C1-9920BF186C8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>binary!$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>extract</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>binary!$C$17:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>binary!$H$17:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.4148178100585897E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.17301940917968E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1314315795898397E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6321105957031196E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7990036010742106E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9D12-43AA-88C1-9920BF186C8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="264470719"/>
+        <c:axId val="264473215"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="264470719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据规模</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="264473215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="264473215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="264470719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>各个步骤时间开销</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fib!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>build</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fib!$D$15:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fib!$E$15:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2254714965820299E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7394294738769499E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8385391235351497E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5861473083495996E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7353248596191395E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9319-43B1-8D7D-10C10C9A4097}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fib!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>insert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fib!$D$15:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fib!$F$15:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.47955322265625E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4809112548828098E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5510787963867099E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.86102294921875E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9325485229492099E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9319-43B1-8D7D-10C10C9A4097}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fib!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>decrease</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fib!$D$15:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fib!$G$15:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5497207641601502E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7881393432617099E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9100646972656203E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.66893005371093E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.66893005371093E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9319-43B1-8D7D-10C10C9A4097}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fib!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fib!$D$15:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fib!$H$15:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.8814544677734299E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0234794616699197E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3467025756835905E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7366828918456999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3984603881835905E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9319-43B1-8D7D-10C10C9A4097}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fib!$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>extract</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fib!$D$15:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fib!$I$15:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.7312507629394499E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.88860702514648E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6825408935546799E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.51326370239257E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4560432434081999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9319-43B1-8D7D-10C10C9A4097}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="404509375"/>
+        <c:axId val="404500639"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="404509375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据规模</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404500639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="404500639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404509375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2232024</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403224</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>292099</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,13 +3162,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>2.5200843811035102E-4</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>3.3378601074218703E-5</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2.0265579223632799E-5</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>4.1961669921875E-5</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>9.7990036010742106E-5</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5.9366226196289002E-5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4.3153762817382799E-5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.1219253540039002E-5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3.5285949707031203E-5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>7.4148178100585897E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>200</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9.9420547485351495E-5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3.2663345336914002E-5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.1696090698242099E-5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.3617019653320299E-5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.17301940917968E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>300</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.4209747314453101E-4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3.38554382324218E-5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.9550323486328101E-5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3.814697265625E-5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>9.1314315795898397E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>400</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.9907951354980401E-4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.7193298339843703E-5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.05039978027343E-5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3.57627868652343E-5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>9.6321105957031196E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.5200843811035102E-4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.3378601074218703E-5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.0265579223632799E-5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4.1961669921875E-5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>9.7990036010742106E-5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1.2254714965820299E-4</v>
+      </c>
+      <c r="B1">
+        <v>2.7394294738769499E-4</v>
+      </c>
+      <c r="C1">
+        <v>3.8385391235351497E-4</v>
+      </c>
+      <c r="D1">
+        <v>5.5861473083495996E-4</v>
+      </c>
+      <c r="E1">
+        <v>6.7353248596191395E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2.47955322265625E-5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.4809112548828098E-5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.5510787963867099E-5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.86102294921875E-5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.9325485229492099E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1.5497207641601502E-5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.7881393432617099E-5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.9100646972656203E-5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.66893005371093E-5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.66893005371093E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.8814544677734299E-4</v>
+      </c>
+      <c r="B4">
+        <v>5.0234794616699197E-4</v>
+      </c>
+      <c r="C4">
+        <v>6.3467025756835905E-4</v>
+      </c>
+      <c r="D4">
+        <v>7.7366828918456999E-4</v>
+      </c>
+      <c r="E4">
+        <v>9.3984603881835905E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3.7312507629394499E-4</v>
+      </c>
+      <c r="B5">
+        <v>3.88860702514648E-4</v>
+      </c>
+      <c r="C5">
+        <v>4.6825408935546799E-4</v>
+      </c>
+      <c r="D5">
+        <v>4.51326370239257E-4</v>
+      </c>
+      <c r="E5">
+        <v>4.4560432434081999E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>1.2254714965820299E-4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.47955322265625E-5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.5497207641601502E-5</v>
+      </c>
+      <c r="H15">
+        <v>3.8814544677734299E-4</v>
+      </c>
+      <c r="I15">
+        <v>3.7312507629394499E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16">
+        <v>2.7394294738769499E-4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.4809112548828098E-5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.7881393432617099E-5</v>
+      </c>
+      <c r="H16">
+        <v>5.0234794616699197E-4</v>
+      </c>
+      <c r="I16">
+        <v>3.88860702514648E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>300</v>
+      </c>
+      <c r="E17">
+        <v>3.8385391235351497E-4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.5510787963867099E-5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3.9100646972656203E-5</v>
+      </c>
+      <c r="H17">
+        <v>6.3467025756835905E-4</v>
+      </c>
+      <c r="I17">
+        <v>4.6825408935546799E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>400</v>
+      </c>
+      <c r="E18">
+        <v>5.5861473083495996E-4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.86102294921875E-5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.66893005371093E-5</v>
+      </c>
+      <c r="H18">
+        <v>7.7366828918456999E-4</v>
+      </c>
+      <c r="I18">
+        <v>4.51326370239257E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>500</v>
+      </c>
+      <c r="E19">
+        <v>6.7353248596191395E-4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.9325485229492099E-5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.66893005371093E-5</v>
+      </c>
+      <c r="H19">
+        <v>9.3984603881835905E-4</v>
+      </c>
+      <c r="I19">
+        <v>4.4560432434081999E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>